--- a/monitoring-iku-41-pembilang.xlsx
+++ b/monitoring-iku-41-pembilang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>Persentase Dosen yang memiliki sertifikat kompetensi/profesi yang diakui oleh DUDI</t>
   </si>
@@ -98,7 +98,7 @@
     <t>MOS</t>
   </si>
   <si>
-    <t>Rizki Andre Handika ST, MT, Ph.D(Eng.)</t>
+    <t>Ir. Rizki Andre Handika ST, MT, Ph.D(Eng.)</t>
   </si>
   <si>
     <t>Program Studi Teknik Lingkungan</t>
@@ -452,12 +452,48 @@
     <t>Hari Wiki Utama S.T., M.Eng.</t>
   </si>
   <si>
+    <t>Andicho Haryus Wirasapta A.Md.T., S.Tr.T., M.Eng.</t>
+  </si>
+  <si>
+    <t>Digital Marketing Certified</t>
+  </si>
+  <si>
+    <t>HubSpot Academy</t>
+  </si>
+  <si>
+    <t>2025-09-27</t>
+  </si>
+  <si>
+    <t>Ir. Sarah Fiebrina Heraningsih S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Program Studi Teknik Kimia</t>
+  </si>
+  <si>
+    <t>Keamanan Pangan (Food Safety)</t>
+  </si>
+  <si>
+    <t>LSP JMKP</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>Dhian Eka Wijaya S.Si., M.Si.</t>
+  </si>
+  <si>
+    <t>Tenaga Teknik Ketenagalistrikan</t>
+  </si>
+  <si>
+    <t>SUMBERDAYA MANUSIA KELISTRIKAN NUSANTARA</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
     <t>Ir. Oki Alfernando S.T., M.T.</t>
   </si>
   <si>
-    <t>Program Studi Teknik Kimia</t>
-  </si>
-  <si>
     <t>Insinyur Profesional Madya</t>
   </si>
   <si>
@@ -465,6 +501,51 @@
   </si>
   <si>
     <t>IPM</t>
+  </si>
+  <si>
+    <t>Ir. Hariestya Viareco B.Eng., M.Eng.</t>
+  </si>
+  <si>
+    <t>Profesional Engineer Competency</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>Ir. Juventa S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Persatuan Insinyur Indonesi</t>
+  </si>
+  <si>
+    <t>2025-10-25</t>
+  </si>
+  <si>
+    <t>Munifilia Ekasari S.Si., M.Si.</t>
+  </si>
+  <si>
+    <t>Dina Erliana S.Si., M.Si.</t>
+  </si>
+  <si>
+    <t>Alissia Westy Putri S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Insinyur</t>
+  </si>
+  <si>
+    <t>Universitas Jambi</t>
+  </si>
+  <si>
+    <t>2025-07-02</t>
+  </si>
+  <si>
+    <t>Dr. Madyawati Latief S.P., M.Si.</t>
+  </si>
+  <si>
+    <t>Okupasi Instruktur/Instructor Occupation</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
   </si>
 </sst>
 </file>
@@ -804,7 +885,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,34 +2058,349 @@
         <v>145</v>
       </c>
       <c r="B35">
-        <v>199001192019031009</v>
+        <v>199709152025061004</v>
       </c>
       <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
         <v>146</v>
       </c>
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>147</v>
-      </c>
-      <c r="I35" t="s">
-        <v>31</v>
       </c>
       <c r="J35" t="s">
         <v>148</v>
       </c>
       <c r="K35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
         <v>149</v>
+      </c>
+      <c r="B36">
+        <v>198902012022032009</v>
+      </c>
+      <c r="C36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J36" t="s">
+        <v>153</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37">
+        <v>198712262022031003</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" t="s">
+        <v>156</v>
+      </c>
+      <c r="J37" t="s">
+        <v>157</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38">
+        <v>199001192019031009</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" t="s">
+        <v>160</v>
+      </c>
+      <c r="K38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39">
+        <v>198711162022031003</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40">
+        <v>199003062019031012</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" t="s">
+        <v>167</v>
+      </c>
+      <c r="K40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41">
+        <v>199606272023212026</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" t="s">
+        <v>156</v>
+      </c>
+      <c r="J41" t="s">
+        <v>157</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42">
+        <v>199807232023212012</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" t="s">
+        <v>157</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43">
+        <v>199603042025062015</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" t="s">
+        <v>172</v>
+      </c>
+      <c r="J43" t="s">
+        <v>173</v>
+      </c>
+      <c r="K43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44">
+        <v>197206241999032001</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>175</v>
+      </c>
+      <c r="I44" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
